--- a/Data/YANGXING- POS+INV - MAR 2020.XLSX
+++ b/Data/YANGXING- POS+INV - MAR 2020.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanyas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA1272-0D87-4718-BDEC-891269EA2751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10632" activeTab="1"/>
+    <workbookView xWindow="-1620" yWindow="-19450" windowWidth="17280" windowHeight="15640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iventory" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="SITIME" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Iventory!$A$4:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Iventory!$A$1:$E$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POS!$B$1:$B$174</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="259">
-  <si>
-    <t>SiTime Inventory Format</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="257">
   <si>
     <t>SiTime partner name</t>
   </si>
@@ -1072,12 +1067,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.00000_ "/>
-    <numFmt numFmtId="169" formatCode="\$#,##0.000;\-\$#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="171" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
+    <numFmt numFmtId="164" formatCode="0.00000_ "/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1125,7 +1120,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1133,7 +1128,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1250,17 +1245,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,7 +1275,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,9 +1283,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1589,60 +1584,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7890625" customWidth="1"/>
+    <col min="2" max="2" width="24.7890625" customWidth="1"/>
+    <col min="3" max="3" width="20.3125" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" customWidth="1"/>
+    <col min="5" max="5" width="24.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1"/>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.182</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43923</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
+      <c r="A5" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="15">
-        <v>0.26</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E5" s="3">
         <v>43923</v>
@@ -1650,124 +1679,77 @@
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="15">
-        <v>0.182</v>
+        <v>0.192</v>
       </c>
       <c r="E6" s="3">
         <v>43923</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.192</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43923</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:E9"/>
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD707"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="29.1015625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.89453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.89453125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7890625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.89453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.7890625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7890625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.1015625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1015625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1779,15 +1761,15 @@
         <v>2.8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1799,15 +1781,15 @@
         <v>2.8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1819,15 +1801,15 @@
         <v>2.8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -1839,15 +1821,15 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1859,15 +1841,15 @@
         <v>0.32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -1879,15 +1861,15 @@
         <v>0.32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
@@ -1899,15 +1881,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -1919,15 +1901,15 @@
         <v>3.5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
@@ -1939,15 +1921,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
@@ -1959,15 +1941,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2">
         <v>100</v>
@@ -1979,15 +1961,15 @@
         <v>0.26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2">
         <v>20</v>
@@ -1999,15 +1981,15 @@
         <v>2.9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2">
         <v>20</v>
@@ -2019,15 +2001,15 @@
         <v>2.9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -2039,15 +2021,15 @@
         <v>0.3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -2059,15 +2041,15 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -2079,15 +2061,15 @@
         <v>0.3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2">
         <v>12</v>
@@ -2099,15 +2081,15 @@
         <v>2.9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2">
         <v>12</v>
@@ -2119,15 +2101,15 @@
         <v>2.9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2">
         <v>150</v>
@@ -2142,15 +2124,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2">
         <v>1040</v>
@@ -2162,15 +2144,15 @@
         <v>0.85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2">
         <v>30</v>
@@ -2182,15 +2164,15 @@
         <v>0.85</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -2202,15 +2184,15 @@
         <v>3.3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <v>500</v>
@@ -2225,15 +2207,15 @@
         <v>0.3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2">
         <v>2000</v>
@@ -2245,15 +2227,15 @@
         <v>0.27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>3000</v>
@@ -2265,15 +2247,15 @@
         <v>0.26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2">
         <v>1000</v>
@@ -2285,15 +2267,15 @@
         <v>2.4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2">
         <v>1000</v>
@@ -2305,15 +2287,15 @@
         <v>2.4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2">
         <v>40</v>
@@ -2325,15 +2307,15 @@
         <v>0.27</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
@@ -2345,15 +2327,15 @@
         <v>0.27</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2">
         <v>50</v>
@@ -2365,15 +2347,15 @@
         <v>0.32</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2">
         <v>50</v>
@@ -2385,15 +2367,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -2405,15 +2387,15 @@
         <v>2.8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -2425,15 +2407,15 @@
         <v>0.32</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -2445,15 +2427,15 @@
         <v>0.32</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -2465,15 +2447,15 @@
         <v>0.3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2">
         <v>35</v>
@@ -2485,15 +2467,15 @@
         <v>2.8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -2505,15 +2487,15 @@
         <v>2.8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -2525,15 +2507,15 @@
         <v>0.33</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2">
         <v>15</v>
@@ -2545,15 +2527,15 @@
         <v>2.8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2">
         <v>20</v>
@@ -2565,15 +2547,15 @@
         <v>2.8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D42" s="2">
         <v>10</v>
@@ -2585,15 +2567,15 @@
         <v>2.8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2">
         <v>2000</v>
@@ -2605,15 +2587,15 @@
         <v>0.26</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2">
         <v>30</v>
@@ -2625,15 +2607,15 @@
         <v>3.3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2">
         <v>500</v>
@@ -2648,15 +2630,15 @@
         <v>0.25</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2">
         <v>500</v>
@@ -2668,15 +2650,15 @@
         <v>0.33</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2">
         <v>500</v>
@@ -2688,15 +2670,15 @@
         <v>0.33</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="2">
         <v>21000</v>
@@ -2708,15 +2690,15 @@
         <v>0.22</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="2">
         <v>10</v>
@@ -2728,15 +2710,15 @@
         <v>2.9</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2">
         <v>20</v>
@@ -2748,15 +2730,15 @@
         <v>2.9</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2">
         <v>30</v>
@@ -2768,15 +2750,15 @@
         <v>2.9</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2">
         <v>50</v>
@@ -2788,15 +2770,15 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2">
         <v>100</v>
@@ -2808,15 +2790,15 @@
         <v>0.33</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2">
         <v>15</v>
@@ -2828,15 +2810,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2">
         <v>16</v>
@@ -2848,15 +2830,15 @@
         <v>2.6</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2">
         <v>6</v>
@@ -2868,15 +2850,15 @@
         <v>0.3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57" s="2">
         <v>12</v>
@@ -2888,15 +2870,15 @@
         <v>0.3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
@@ -2908,15 +2890,15 @@
         <v>0.3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
@@ -2928,15 +2910,15 @@
         <v>0.3</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -2948,15 +2930,15 @@
         <v>2.5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="2">
         <v>1000</v>
@@ -2968,15 +2950,15 @@
         <v>0.34</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62" s="2">
         <v>150</v>
@@ -2988,15 +2970,15 @@
         <v>0.33</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D63" s="2">
         <v>1000</v>
@@ -3008,15 +2990,15 @@
         <v>0.32</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D64" s="2">
         <v>500</v>
@@ -3028,15 +3010,15 @@
         <v>0.26</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65" s="2">
         <v>200</v>
@@ -3048,15 +3030,15 @@
         <v>0.26</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2">
         <v>30</v>
@@ -3068,15 +3050,15 @@
         <v>3.3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="2">
         <v>12</v>
@@ -3088,15 +3070,15 @@
         <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2">
         <v>4</v>
@@ -3108,15 +3090,15 @@
         <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D69" s="2">
         <v>14</v>
@@ -3128,15 +3110,15 @@
         <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D70" s="2">
         <v>100</v>
@@ -3148,15 +3130,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2">
         <v>100</v>
@@ -3168,15 +3150,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2">
         <v>10</v>
@@ -3188,15 +3170,15 @@
         <v>2.9</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D73" s="2">
         <v>500</v>
@@ -3208,15 +3190,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D74" s="2">
         <v>2000</v>
@@ -3228,15 +3210,15 @@
         <v>0.38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2">
         <v>500</v>
@@ -3248,15 +3230,15 @@
         <v>0.27</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2">
         <v>50</v>
@@ -3268,15 +3250,15 @@
         <v>0.3</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2">
         <v>50</v>
@@ -3288,15 +3270,15 @@
         <v>2.8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D78" s="2">
         <v>10</v>
@@ -3308,15 +3290,15 @@
         <v>0.34</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D79" s="2">
         <v>10</v>
@@ -3328,15 +3310,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D80" s="2">
         <v>10</v>
@@ -3348,15 +3330,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="2">
         <v>100</v>
@@ -3368,15 +3350,15 @@
         <v>0.33</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D82" s="2">
         <v>100</v>
@@ -3388,15 +3370,15 @@
         <v>0.33</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D83" s="2">
         <v>2000</v>
@@ -3408,15 +3390,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D84" s="2">
         <v>50</v>
@@ -3428,15 +3410,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D85" s="2">
         <v>1000</v>
@@ -3448,15 +3430,15 @@
         <v>0.78</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D86" s="2">
         <v>1000</v>
@@ -3468,15 +3450,15 @@
         <v>0.78</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D87" s="2">
         <v>3000</v>
@@ -3488,15 +3470,15 @@
         <v>0.25</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D88" s="2">
         <v>3000</v>
@@ -3508,15 +3490,15 @@
         <v>0.25</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D89" s="2">
         <v>100</v>
@@ -3528,15 +3510,15 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D90" s="2">
         <v>5</v>
@@ -3548,15 +3530,15 @@
         <v>2.8</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D91" s="2">
         <v>20</v>
@@ -3568,15 +3550,15 @@
         <v>2.8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D92" s="2">
         <v>10</v>
@@ -3588,15 +3570,15 @@
         <v>0.3</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="2">
         <v>10</v>
@@ -3608,15 +3590,15 @@
         <v>2.9</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D94" s="2">
         <v>6</v>
@@ -3628,15 +3610,15 @@
         <v>0.3</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D95" s="2">
         <v>3</v>
@@ -3648,15 +3630,15 @@
         <v>0.3</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="2">
         <v>45000</v>
@@ -3668,15 +3650,15 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D97" s="2">
         <v>100</v>
@@ -3688,15 +3670,15 @@
         <v>2.4</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
@@ -3708,15 +3690,15 @@
         <v>0.27</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D99" s="2">
         <v>2</v>
@@ -3728,15 +3710,15 @@
         <v>0.4</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D100" s="2">
         <v>4</v>
@@ -3748,15 +3730,15 @@
         <v>0.27</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101" s="2">
         <v>4</v>
@@ -3768,15 +3750,15 @@
         <v>0.27</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" s="2">
         <v>75</v>
@@ -3788,15 +3770,15 @@
         <v>3</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D103" s="2">
         <v>75</v>
@@ -3808,15 +3790,15 @@
         <v>3</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2">
         <v>15</v>
@@ -3828,15 +3810,15 @@
         <v>3.65</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2">
         <v>15</v>
@@ -3848,15 +3830,15 @@
         <v>3.65</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2">
         <v>15</v>
@@ -3868,15 +3850,15 @@
         <v>3.65</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D107" s="2">
         <v>202</v>
@@ -3888,15 +3870,15 @@
         <v>0.32</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D108" s="2">
         <v>10</v>
@@ -3908,15 +3890,15 @@
         <v>3.8</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109" s="2">
         <v>10</v>
@@ -3928,15 +3910,15 @@
         <v>3.8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D110" s="2">
         <v>10</v>
@@ -3948,15 +3930,15 @@
         <v>0.3</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D111" s="2">
         <v>4</v>
@@ -3968,15 +3950,15 @@
         <v>3.8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D112" s="2">
         <v>6</v>
@@ -3988,15 +3970,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D113" s="2">
         <v>24</v>
@@ -4008,15 +3990,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D114" s="2">
         <v>6</v>
@@ -4028,15 +4010,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D115" s="2">
         <v>1000</v>
@@ -4048,15 +4030,15 @@
         <v>0.26</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D116" s="2">
         <v>2000</v>
@@ -4068,15 +4050,15 @@
         <v>0.27</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D117" s="2">
         <v>6000</v>
@@ -4088,15 +4070,15 @@
         <v>0.24</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D118" s="2">
         <v>500</v>
@@ -4108,15 +4090,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D119" s="2">
         <v>50</v>
@@ -4128,15 +4110,15 @@
         <v>0.26</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D120" s="2">
         <v>250</v>
@@ -4148,15 +4130,15 @@
         <v>0.26</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D121" s="2">
         <v>23</v>
@@ -4168,15 +4150,15 @@
         <v>3</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D122" s="2">
         <v>100</v>
@@ -4188,15 +4170,15 @@
         <v>2.5</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D123" s="2">
         <v>100</v>
@@ -4208,15 +4190,15 @@
         <v>2.5</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>30</v>
@@ -4228,15 +4210,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>20</v>
@@ -4248,15 +4230,15 @@
         <v>2.8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D126" s="2">
         <v>25</v>
@@ -4268,15 +4250,15 @@
         <v>2.8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>20</v>
@@ -4288,15 +4270,15 @@
         <v>2.9</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>5</v>
@@ -4308,15 +4290,15 @@
         <v>0.3</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D129" s="2">
         <v>10</v>
@@ -4328,15 +4310,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D130" s="2">
         <v>10</v>
@@ -4348,15 +4330,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D131" s="2">
         <v>10</v>
@@ -4368,15 +4350,15 @@
         <v>3</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D132" s="2">
         <v>49</v>
@@ -4388,15 +4370,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D133" s="2">
         <v>2</v>
@@ -4408,15 +4390,15 @@
         <v>2.8</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D134" s="2">
         <v>1000</v>
@@ -4428,15 +4410,15 @@
         <v>0.26</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D135" s="2">
         <v>50</v>
@@ -4448,15 +4430,15 @@
         <v>0.32</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D136" s="2">
         <v>10</v>
@@ -4468,15 +4450,15 @@
         <v>2.9</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D137" s="2">
         <v>200</v>
@@ -4488,15 +4470,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D138" s="2">
         <v>3000</v>
@@ -4508,15 +4490,15 @@
         <v>0.34</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>120</v>
@@ -4528,15 +4510,15 @@
         <v>2.8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>140</v>
@@ -4548,15 +4530,15 @@
         <v>2.8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2">
         <v>500</v>
@@ -4568,15 +4550,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D142" s="2">
         <v>10</v>
@@ -4588,15 +4570,15 @@
         <v>3.5</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D143" s="2">
         <v>3</v>
@@ -4608,15 +4590,15 @@
         <v>3.5</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2">
         <v>50</v>
@@ -4628,15 +4610,15 @@
         <v>0.27</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D145" s="2">
         <v>100</v>
@@ -4648,15 +4630,15 @@
         <v>0.27</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D146" s="2">
         <v>25</v>
@@ -4668,15 +4650,15 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D147" s="2">
         <v>25</v>
@@ -4688,15 +4670,15 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D148" s="2">
         <v>30</v>
@@ -4708,15 +4690,15 @@
         <v>2.8</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D149" s="2">
         <v>200</v>
@@ -4728,15 +4710,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D150" s="2">
         <v>10</v>
@@ -4748,15 +4730,15 @@
         <v>0.35</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D151" s="2">
         <v>20</v>
@@ -4768,15 +4750,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D152" s="2">
         <v>10</v>
@@ -4788,15 +4770,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D153" s="2">
         <v>10</v>
@@ -4808,15 +4790,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D154" s="2">
         <v>200</v>
@@ -4828,15 +4810,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D155" s="2">
         <v>22</v>
@@ -4848,15 +4830,15 @@
         <v>2.5</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D156" s="2">
         <v>20</v>
@@ -4868,15 +4850,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D157" s="2">
         <v>20</v>
@@ -4888,15 +4870,15 @@
         <v>0.3</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D158" s="2">
         <v>16</v>
@@ -4908,15 +4890,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D159" s="2">
         <v>14</v>
@@ -4928,15 +4910,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>110</v>
@@ -4948,15 +4930,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D161" s="2">
         <v>100</v>
@@ -4968,15 +4950,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D162" s="2">
         <v>100</v>
@@ -4988,15 +4970,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D163" s="2">
         <v>100</v>
@@ -5008,15 +4990,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D164" s="2">
         <v>100</v>
@@ -5028,15 +5010,15 @@
         <v>0.3</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D165" s="2">
         <v>100</v>
@@ -5048,15 +5030,15 @@
         <v>2.6</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C166" s="2">
         <v>2000</v>
@@ -5071,15 +5053,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D167" s="2">
         <v>30</v>
@@ -5091,15 +5073,15 @@
         <v>3</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C168" s="2">
         <v>1000</v>
@@ -5114,15 +5096,15 @@
         <v>0.27</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D169" s="2">
         <v>50</v>
@@ -5134,15 +5116,15 @@
         <v>2.6</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D170" s="2">
         <v>50</v>
@@ -5154,15 +5136,15 @@
         <v>0.35</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D171" s="2">
         <v>33</v>
@@ -5174,15 +5156,15 @@
         <v>2.8</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D172" s="2">
         <v>10</v>
@@ -5194,15 +5176,15 @@
         <v>2.8</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D173" s="2">
         <v>20</v>
@@ -5214,15 +5196,15 @@
         <v>2.8</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D174" s="2">
         <v>10</v>
@@ -5234,7 +5216,7 @@
         <v>2.8</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5358,56 +5340,56 @@
       <c r="G189" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B174"/>
+  <autoFilter ref="B1:B174" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.89453125" customWidth="1"/>
+    <col min="2" max="2" width="25.89453125" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" customWidth="1"/>
+    <col min="5" max="5" width="15.41796875" customWidth="1"/>
+    <col min="6" max="6" width="13.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.4">
+    </row>
+    <row r="2" spans="1:6" ht="24.6">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -5419,15 +5401,15 @@
         <v>0.38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.6">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>10000</v>
@@ -5439,15 +5421,15 @@
         <v>0.27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.6">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>5000</v>
@@ -5459,15 +5441,15 @@
         <v>0.27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.6">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>5000</v>
@@ -5479,15 +5461,15 @@
         <v>0.27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.6">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>2000</v>
@@ -5499,15 +5481,15 @@
         <v>0.38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.6">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>20000</v>
@@ -5519,15 +5501,15 @@
         <v>0.27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.6">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2">
         <v>21000</v>
@@ -5539,15 +5521,15 @@
         <v>0.22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.6">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2">
         <v>2000</v>
@@ -5559,15 +5541,15 @@
         <v>0.38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2">
         <v>45000</v>
@@ -5579,15 +5561,15 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.6">
       <c r="A11" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>50</v>
@@ -5599,15 +5581,15 @@
         <v>0.27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.6">
       <c r="A12" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>100</v>
@@ -5619,15 +5601,15 @@
         <v>0.27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.6">
       <c r="A13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>25</v>
@@ -5639,15 +5621,15 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.6">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>25</v>
@@ -5659,7 +5641,7 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5891,6 +5873,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5899,20 +5887,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F227D00-043C-49D4-AAF9-0D454062ADAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F227D00-043C-49D4-AAF9-0D454062ADAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
+    <ds:schemaRef ds:uri="9c0d39b0-f853-46d0-be1c-b75ead6e7377"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64173479-7189-4DB4-88D4-137C90BE80FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87883880-0C7F-4325-B7AB-8A51AB96497D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87883880-0C7F-4325-B7AB-8A51AB96497D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64173479-7189-4DB4-88D4-137C90BE80FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>